--- a/Slots.xlsx
+++ b/Slots.xlsx
@@ -85,13 +85,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,12 +116,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +447,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L9"/>
+      <selection activeCell="C3" sqref="C3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +459,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -473,9 +497,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -518,7 +568,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L9"/>
+      <selection activeCell="C3" sqref="C3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +580,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -568,9 +618,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -613,7 +689,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L9"/>
+      <selection activeCell="C3" sqref="C3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +701,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -663,9 +739,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -708,7 +810,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L9"/>
+      <selection activeCell="C3" sqref="C3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +822,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -758,9 +860,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44</v>
+      </c>
+      <c r="J3" s="1">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -803,7 +931,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L9"/>
+      <selection activeCell="C3" sqref="C3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +943,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -853,9 +981,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -898,7 +1052,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L9"/>
+      <selection activeCell="C3" sqref="C3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +1064,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -948,9 +1102,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -993,7 +1173,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L9"/>
+      <selection activeCell="C3" sqref="C3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1185,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1043,9 +1223,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1088,7 +1294,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L9"/>
+      <selection activeCell="C3" sqref="C3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1306,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1138,9 +1344,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1183,7 +1415,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L9"/>
+      <selection activeCell="C3" sqref="C3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1427,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1233,9 +1465,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
